--- a/src/test/java/DataSheet/Datasheet.xlsx
+++ b/src/test/java/DataSheet/Datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15960" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16245" windowHeight="3165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Sheet" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scenarios Sheet'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J19"/>
+  <oleSize ref="A1:L9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Execute</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Logout</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Login2</t>
   </si>
   <si>
@@ -115,6 +118,18 @@
   </si>
   <si>
     <t>Log</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+  <si>
+    <t>mirja</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>info</t>
   </si>
 </sst>
 </file>
@@ -559,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -630,16 +645,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -648,13 +663,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -681,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>18</v>
@@ -730,10 +745,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -750,16 +765,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>123</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="6"/>
@@ -773,13 +788,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="6"/>
@@ -795,11 +816,17 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>123</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="6"/>
@@ -835,13 +862,13 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -917,13 +944,13 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>

--- a/src/test/java/DataSheet/Datasheet.xlsx
+++ b/src/test/java/DataSheet/Datasheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16245" windowHeight="3165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16245" windowHeight="3165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Sheet" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scenarios Sheet'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Execute</t>
   </si>
@@ -114,9 +113,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
     <t>Log</t>
   </si>
   <si>
@@ -130,13 +126,19 @@
   </si>
   <si>
     <t>info</t>
+  </si>
+  <si>
+    <t>mirjarajesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh@1992</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +164,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,10 +246,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -271,8 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -280,6 +295,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +379,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +431,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -686,25 +738,25 @@
       <c r="B8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="11"/>
     <col min="2" max="2" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -764,14 +816,14 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="3">
-        <v>123</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -791,13 +843,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
@@ -814,16 +866,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
         <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>28</v>
@@ -839,13 +891,17 @@
       <c r="N5" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D9C40575-0293-4AAE-B312-4C83C1A775B8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C65DE63F-7EBC-4B79-A194-8E6995AF7F69}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -927,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/java/DataSheet/Datasheet.xlsx
+++ b/src/test/java/DataSheet/Datasheet.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16245" windowHeight="3165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16245" windowHeight="3165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TC1" sheetId="2" r:id="rId2"/>
     <sheet name="TC2" sheetId="3" r:id="rId3"/>
     <sheet name="TC3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="TC4" sheetId="4" r:id="rId5"/>
+    <sheet name="TC5" sheetId="6" r:id="rId6"/>
+    <sheet name="TC6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scenarios Sheet'!$A$1:$L$1</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Execute</t>
   </si>
@@ -68,77 +70,119 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>Logout2</t>
-  </si>
-  <si>
-    <t>Login3</t>
-  </si>
-  <si>
-    <t>Logout3</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
-    <t>verifyScripName</t>
-  </si>
-  <si>
-    <t>scripName</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Titleverify</t>
+  </si>
+  <si>
+    <t>SearchLinkText</t>
+  </si>
+  <si>
+    <t>buttonsverify</t>
+  </si>
+  <si>
+    <t>Linkverify</t>
+  </si>
+  <si>
+    <t>Textverfy</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>VeifyInfo</t>
+  </si>
+  <si>
+    <t>SendMail</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Checkmenu</t>
+  </si>
+  <si>
+    <t>verifycheckoutlink</t>
   </si>
   <si>
     <t>Log</t>
   </si>
   <si>
-    <t>beg</t>
-  </si>
-  <si>
-    <t>mirja</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>mirjarajesh@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajesh@1992</t>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Repot</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>webname</t>
+  </si>
+  <si>
+    <t>buttontype</t>
+  </si>
+  <si>
+    <t>Scriplog</t>
+  </si>
+  <si>
+    <t>loginfo</t>
+  </si>
+  <si>
+    <t>Pagename</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Log1</t>
+  </si>
+  <si>
+    <t>log2</t>
+  </si>
+  <si>
+    <t>log1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify </t>
+  </si>
+  <si>
+    <t>log3</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>Buttonsverify</t>
+  </si>
+  <si>
+    <t>Titleverify2</t>
+  </si>
+  <si>
+    <t>Pagename3</t>
+  </si>
+  <si>
+    <t>Titleverify4</t>
+  </si>
+  <si>
+    <t>Titleverify5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,32 +196,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,13 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,48 +260,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,118 +634,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8"/>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -746,236 +786,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="11"/>
-    <col min="2" max="2" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3">
-        <v>123</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{D9C40575-0293-4AAE-B312-4C83C1A775B8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C65DE63F-7EBC-4B79-A194-8E6995AF7F69}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,80 +981,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,9 +1070,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF8029A-EC10-49FF-81AB-462BEDA94E60}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3953188D-ACF0-403D-A0C9-D75A5A1B4D54}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
